--- a/MicroRegresionUAT.xlsx
+++ b/MicroRegresionUAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Linea</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Tipo Domicilio</t>
   </si>
   <si>
-    <t>3471586298</t>
-  </si>
-  <si>
     <t>22222035</t>
   </si>
   <si>
@@ -110,15 +107,9 @@
     <t>ExistenteNomina</t>
   </si>
   <si>
-    <t>23202020</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2932523644</t>
-  </si>
-  <si>
     <t>BANCO SANTANDER RIO S.A.</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>2932564466</t>
   </si>
   <si>
-    <t>8000000082410001</t>
-  </si>
-  <si>
     <t>RenovacionTCAgente</t>
   </si>
   <si>
@@ -243,13 +231,34 @@
   </si>
   <si>
     <t>RECARGAS</t>
+  </si>
+  <si>
+    <t>91020603</t>
+  </si>
+  <si>
+    <t>2932564468</t>
+  </si>
+  <si>
+    <t>8000000183110001</t>
+  </si>
+  <si>
+    <t>2932564322</t>
+  </si>
+  <si>
+    <t>Automata</t>
+  </si>
+  <si>
+    <t>Compacto</t>
+  </si>
+  <si>
+    <t>77586423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,12 +289,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -399,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,39 +423,33 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,7 +741,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -814,40 +811,40 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="3">
         <v>1524</v>
@@ -856,337 +853,337 @@
         <v>1524</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="L5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="K6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="M6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="L9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="K10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="L10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>64</v>
+      <c r="B11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>64</v>
+      <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="L13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
